--- a/idis/expdata/10061.xlsx
+++ b/idis/expdata/10061.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC82048-E4DA-6040-A2EA-1B613888EAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A80F8-2D67-9441-A83C-4E5345E76FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33540" yWindow="2860" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>col</t>
   </si>
@@ -51,22 +51,25 @@
     <t>obs</t>
   </si>
   <si>
-    <t>JLab PVDIS</t>
-  </si>
-  <si>
-    <t>Elab</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>A_PV_e</t>
   </si>
   <si>
-    <t>stat_u</t>
+    <t>SLAC PVDIS</t>
   </si>
   <si>
-    <t>syst_u</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>A/Q2</t>
+  </si>
+  <si>
+    <t>err_u</t>
+  </si>
+  <si>
+    <t>norm_c</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -121,6 +124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,26 +466,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I677"/>
+  <dimension ref="A1:J677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -494,187 +501,425 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>6.0670000000000002</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.085</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-11.8</v>
+      </c>
+      <c r="H2" s="1">
+        <f>G2*D2*10^(-5)</f>
+        <v>-1.0856000000000003E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="J2">
+        <f>H2*0.05</f>
+        <v>-5.4280000000000021E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-9.1100000000000005E-5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3.1E-6</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3.0000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>6.0670000000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.901</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-8.9</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H12" si="0">G3*D3*10^(-5)</f>
+        <v>-1.3617000000000002E-4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.3000000000000001E-5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J12" si="1">H3*0.05</f>
+        <v>-6.808500000000001E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1.6080000000000001E-4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6.3999999999999997E-6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3.1E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0.16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3983999999999999E-4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.7E-5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>-6.9920000000000001E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-6.3</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.3790000000000009E-5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.7E-5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-4.1895000000000003E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7152000000000001E-4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.8E-5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>8.5760000000000006E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0750000000000001E-4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>5.3750000000000011E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>-10.4</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.2064000000000001E-4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.8E-5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-6.0320000000000009E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.922E-5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.9E-5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-2.4610000000000002E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9290000000000004E-5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.0000000000000004E-5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-2.4645000000000003E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-7</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.372E-4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.1000000000000002E-5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-6.8600000000000004E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-8.9</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.4773999999999999E-4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.8E-5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-7.3869999999999997E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -683,7 +928,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -692,7 +937,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -701,7 +946,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -710,7 +955,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -719,7 +964,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -728,7 +973,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
@@ -737,7 +982,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
@@ -746,7 +991,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
@@ -755,7 +1000,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
@@ -764,7 +1009,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
@@ -773,7 +1018,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
@@ -782,7 +1027,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
@@ -791,7 +1036,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
@@ -800,7 +1045,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
@@ -809,7 +1054,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
@@ -818,7 +1063,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
@@ -827,7 +1072,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
@@ -836,7 +1081,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
@@ -845,7 +1090,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
@@ -854,7 +1099,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
@@ -863,7 +1108,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
@@ -872,7 +1117,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
@@ -881,7 +1126,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
@@ -890,7 +1135,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
@@ -899,7 +1144,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
@@ -908,7 +1153,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
@@ -917,7 +1162,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
@@ -926,7 +1171,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
@@ -935,7 +1180,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="4"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
@@ -944,7 +1189,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
@@ -953,7 +1198,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
@@ -962,7 +1207,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
@@ -971,7 +1216,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
@@ -980,7 +1225,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
@@ -989,7 +1234,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
@@ -998,7 +1243,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
@@ -1007,7 +1252,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
@@ -1016,7 +1261,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
@@ -1025,7 +1270,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="4"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
@@ -1034,7 +1279,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
@@ -1043,7 +1288,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="4"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
@@ -1052,7 +1297,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="4"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
@@ -1061,7 +1306,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
@@ -1070,7 +1315,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="4"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
@@ -1079,7 +1324,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
@@ -1088,7 +1333,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
@@ -1097,7 +1342,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="4"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
@@ -1106,7 +1351,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
@@ -1115,7 +1360,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
@@ -1124,7 +1369,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
@@ -1133,7 +1378,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="4"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
@@ -1142,7 +1387,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
@@ -1151,7 +1396,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
@@ -1160,7 +1405,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="4"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
@@ -1169,7 +1414,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="4"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
@@ -1178,7 +1423,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="4"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
@@ -1187,7 +1432,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="4"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
@@ -1196,7 +1441,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="4"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
@@ -1205,7 +1450,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="4"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
@@ -1214,7 +1459,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="4"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
@@ -1223,7 +1468,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="4"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
@@ -1232,7 +1477,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="4"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
@@ -1241,7 +1486,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="4"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
@@ -1250,7 +1495,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="4"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
@@ -1259,7 +1504,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="4"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
@@ -1268,7 +1513,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="4"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
@@ -1277,7 +1522,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="4"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
@@ -1286,7 +1531,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="4"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
@@ -1295,7 +1540,7 @@
       <c r="D85" s="1"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="4"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
@@ -1304,7 +1549,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="4"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
@@ -1313,7 +1558,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="1"/>
+      <c r="G87" s="4"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
@@ -1322,7 +1567,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="4"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
@@ -1331,7 +1576,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="4"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
@@ -1340,7 +1585,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="4"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
@@ -1349,7 +1594,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="4"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
@@ -1358,7 +1603,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="4"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
@@ -1367,7 +1612,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="4"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
@@ -1376,7 +1621,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="4"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
@@ -1385,7 +1630,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="4"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
@@ -1394,7 +1639,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="4"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
@@ -1403,7 +1648,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="4"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
@@ -1412,7 +1657,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="4"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
@@ -1421,7 +1666,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="1"/>
+      <c r="G99" s="4"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
@@ -1430,7 +1675,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="1"/>
+      <c r="G100" s="4"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
@@ -1439,7 +1684,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="1"/>
+      <c r="G101" s="4"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
@@ -1448,7 +1693,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="4"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
@@ -1457,7 +1702,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="1"/>
+      <c r="G103" s="4"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
@@ -1466,7 +1711,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="4"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
@@ -1475,7 +1720,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="4"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
@@ -1484,7 +1729,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="4"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
@@ -1493,7 +1738,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="1"/>
+      <c r="G107" s="4"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
@@ -1502,7 +1747,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="1"/>
+      <c r="G108" s="4"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
@@ -1511,7 +1756,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="1"/>
+      <c r="G109" s="4"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
@@ -1520,7 +1765,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="1"/>
+      <c r="G110" s="4"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
@@ -1529,7 +1774,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="1"/>
+      <c r="G111" s="4"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
@@ -1538,7 +1783,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="1"/>
+      <c r="G112" s="4"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
@@ -1547,7 +1792,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="1"/>
+      <c r="G113" s="4"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
@@ -1556,7 +1801,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="1"/>
+      <c r="G114" s="4"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
@@ -1565,7 +1810,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="1"/>
+      <c r="G115" s="4"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
@@ -1574,7 +1819,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="1"/>
+      <c r="G116" s="4"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
@@ -1583,7 +1828,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="1"/>
+      <c r="G117" s="4"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
@@ -1592,7 +1837,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="1"/>
+      <c r="G118" s="4"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
@@ -1601,7 +1846,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="1"/>
+      <c r="G119" s="4"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
@@ -1610,7 +1855,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="1"/>
+      <c r="G120" s="4"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
@@ -1619,7 +1864,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="1"/>
+      <c r="G121" s="4"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
@@ -1628,7 +1873,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="1"/>
+      <c r="G122" s="4"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
@@ -1637,7 +1882,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="1"/>
+      <c r="G123" s="4"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
@@ -1646,7 +1891,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="1"/>
+      <c r="G124" s="4"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
@@ -1655,7 +1900,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="1"/>
+      <c r="G125" s="4"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
@@ -1664,7 +1909,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="1"/>
+      <c r="G126" s="4"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
@@ -1673,7 +1918,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="1"/>
+      <c r="G127" s="4"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
@@ -1682,7 +1927,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="1"/>
+      <c r="G128" s="4"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
@@ -1691,7 +1936,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="1"/>
+      <c r="G129" s="4"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
@@ -1700,7 +1945,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="1"/>
+      <c r="G130" s="4"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
@@ -1709,7 +1954,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="1"/>
+      <c r="G131" s="4"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
@@ -1718,7 +1963,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="1"/>
+      <c r="G132" s="4"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
@@ -1727,7 +1972,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="1"/>
+      <c r="G133" s="4"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
@@ -1736,7 +1981,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="1"/>
+      <c r="G134" s="4"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
@@ -1745,7 +1990,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="1"/>
+      <c r="G135" s="4"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
@@ -1754,7 +1999,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="1"/>
+      <c r="G136" s="4"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
@@ -1763,7 +2008,7 @@
       <c r="D137" s="1"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="1"/>
+      <c r="G137" s="4"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
@@ -1772,7 +2017,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="1"/>
+      <c r="G138" s="4"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
@@ -1781,7 +2026,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="1"/>
+      <c r="G139" s="4"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
@@ -1790,7 +2035,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="1"/>
+      <c r="G140" s="4"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
@@ -1799,7 +2044,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="1"/>
+      <c r="G141" s="4"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
@@ -1808,7 +2053,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="1"/>
+      <c r="G142" s="4"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
@@ -1817,7 +2062,7 @@
       <c r="D143" s="1"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="1"/>
+      <c r="G143" s="4"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
@@ -1826,7 +2071,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="1"/>
+      <c r="G144" s="4"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
@@ -1835,7 +2080,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="1"/>
+      <c r="G145" s="4"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
@@ -1844,7 +2089,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="1"/>
+      <c r="G146" s="4"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
@@ -1853,7 +2098,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="1"/>
+      <c r="G147" s="4"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
@@ -1862,7 +2107,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="1"/>
+      <c r="G148" s="4"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
@@ -1871,7 +2116,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="1"/>
+      <c r="G149" s="4"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
@@ -1880,7 +2125,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="1"/>
+      <c r="G150" s="4"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
@@ -1889,7 +2134,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="1"/>
+      <c r="G151" s="4"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
@@ -1898,7 +2143,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="1"/>
+      <c r="G152" s="4"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
@@ -1907,7 +2152,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="1"/>
+      <c r="G153" s="4"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
@@ -1916,7 +2161,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="1"/>
+      <c r="G154" s="4"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
@@ -1925,7 +2170,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="1"/>
+      <c r="G155" s="4"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
@@ -1934,7 +2179,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="1"/>
+      <c r="G156" s="4"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
@@ -1943,7 +2188,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="1"/>
+      <c r="G157" s="4"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
@@ -1952,7 +2197,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="1"/>
+      <c r="G158" s="4"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
@@ -1961,7 +2206,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="1"/>
+      <c r="G159" s="4"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
@@ -1970,7 +2215,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="1"/>
+      <c r="G160" s="4"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
@@ -1979,7 +2224,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="1"/>
+      <c r="G161" s="4"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
@@ -1988,7 +2233,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="1"/>
+      <c r="G162" s="4"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
@@ -1997,7 +2242,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="1"/>
+      <c r="G163" s="4"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
@@ -2006,7 +2251,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="1"/>
+      <c r="G164" s="4"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
@@ -2015,7 +2260,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="1"/>
+      <c r="G165" s="4"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
@@ -2024,7 +2269,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="1"/>
+      <c r="G166" s="4"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
@@ -2033,7 +2278,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
-      <c r="G167" s="1"/>
+      <c r="G167" s="4"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
@@ -2042,7 +2287,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
-      <c r="G168" s="1"/>
+      <c r="G168" s="4"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
@@ -2051,7 +2296,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
-      <c r="G169" s="1"/>
+      <c r="G169" s="4"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
@@ -2060,7 +2305,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
-      <c r="G170" s="1"/>
+      <c r="G170" s="4"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
@@ -2069,7 +2314,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
-      <c r="G171" s="1"/>
+      <c r="G171" s="4"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
@@ -2078,7 +2323,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
-      <c r="G172" s="1"/>
+      <c r="G172" s="4"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
@@ -2087,7 +2332,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
-      <c r="G173" s="1"/>
+      <c r="G173" s="4"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
@@ -2096,7 +2341,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
-      <c r="G174" s="1"/>
+      <c r="G174" s="4"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
@@ -2105,7 +2350,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
-      <c r="G175" s="1"/>
+      <c r="G175" s="4"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
@@ -2114,7 +2359,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
-      <c r="G176" s="1"/>
+      <c r="G176" s="4"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
@@ -2123,7 +2368,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
-      <c r="G177" s="1"/>
+      <c r="G177" s="4"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
@@ -2132,7 +2377,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
-      <c r="G178" s="1"/>
+      <c r="G178" s="4"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
@@ -2141,7 +2386,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
-      <c r="G179" s="1"/>
+      <c r="G179" s="4"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
@@ -2150,7 +2395,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
-      <c r="G180" s="1"/>
+      <c r="G180" s="4"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
@@ -2159,7 +2404,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
-      <c r="G181" s="1"/>
+      <c r="G181" s="4"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
     </row>
@@ -2168,7 +2413,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
-      <c r="G182" s="1"/>
+      <c r="G182" s="4"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
@@ -2177,7 +2422,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
-      <c r="G183" s="1"/>
+      <c r="G183" s="4"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
     </row>
@@ -2186,7 +2431,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
-      <c r="G184" s="1"/>
+      <c r="G184" s="4"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
     </row>
@@ -2195,7 +2440,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
-      <c r="G185" s="1"/>
+      <c r="G185" s="4"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
@@ -2204,7 +2449,7 @@
       <c r="D186" s="1"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
-      <c r="G186" s="1"/>
+      <c r="G186" s="4"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
     </row>
@@ -2213,7 +2458,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
-      <c r="G187" s="1"/>
+      <c r="G187" s="4"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
     </row>
@@ -2222,7 +2467,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="1"/>
+      <c r="G188" s="4"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
@@ -2231,7 +2476,7 @@
       <c r="D189" s="1"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
-      <c r="G189" s="1"/>
+      <c r="G189" s="4"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
@@ -2240,7 +2485,7 @@
       <c r="D190" s="1"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="1"/>
+      <c r="G190" s="4"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
@@ -2249,7 +2494,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
-      <c r="G191" s="1"/>
+      <c r="G191" s="4"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
@@ -2258,7 +2503,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="1"/>
+      <c r="G192" s="4"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
@@ -2267,7 +2512,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="1"/>
+      <c r="G193" s="4"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
@@ -2276,7 +2521,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="1"/>
+      <c r="G194" s="4"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
@@ -2285,7 +2530,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
-      <c r="G195" s="1"/>
+      <c r="G195" s="4"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
@@ -2294,7 +2539,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
-      <c r="G196" s="1"/>
+      <c r="G196" s="4"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
@@ -2303,7 +2548,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
-      <c r="G197" s="1"/>
+      <c r="G197" s="4"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
@@ -2312,7 +2557,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
-      <c r="G198" s="1"/>
+      <c r="G198" s="4"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
@@ -2321,7 +2566,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
-      <c r="G199" s="1"/>
+      <c r="G199" s="4"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
@@ -2330,7 +2575,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
-      <c r="G200" s="1"/>
+      <c r="G200" s="4"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
     </row>
@@ -2339,7 +2584,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
-      <c r="G201" s="1"/>
+      <c r="G201" s="4"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
@@ -2348,7 +2593,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="1"/>
+      <c r="G202" s="4"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
     </row>
@@ -2357,7 +2602,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
-      <c r="G203" s="1"/>
+      <c r="G203" s="4"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
     </row>
@@ -2366,7 +2611,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
-      <c r="G204" s="1"/>
+      <c r="G204" s="4"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
     </row>
@@ -2375,7 +2620,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
-      <c r="G205" s="1"/>
+      <c r="G205" s="4"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
     </row>
@@ -2384,7 +2629,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
-      <c r="G206" s="1"/>
+      <c r="G206" s="4"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
@@ -2393,7 +2638,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
-      <c r="G207" s="1"/>
+      <c r="G207" s="4"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
     </row>
@@ -2402,7 +2647,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
-      <c r="G208" s="1"/>
+      <c r="G208" s="4"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
@@ -2411,7 +2656,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
-      <c r="G209" s="1"/>
+      <c r="G209" s="4"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
@@ -2420,7 +2665,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
-      <c r="G210" s="1"/>
+      <c r="G210" s="4"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
@@ -2429,7 +2674,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
-      <c r="G211" s="1"/>
+      <c r="G211" s="4"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
@@ -2438,7 +2683,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
-      <c r="G212" s="1"/>
+      <c r="G212" s="4"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
@@ -2447,7 +2692,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
-      <c r="G213" s="1"/>
+      <c r="G213" s="4"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
     </row>
@@ -2456,7 +2701,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
-      <c r="G214" s="1"/>
+      <c r="G214" s="4"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
     </row>
@@ -2465,7 +2710,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
-      <c r="G215" s="1"/>
+      <c r="G215" s="4"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
     </row>
@@ -2474,7 +2719,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
-      <c r="G216" s="1"/>
+      <c r="G216" s="4"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
     </row>
@@ -2483,7 +2728,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
-      <c r="G217" s="1"/>
+      <c r="G217" s="4"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
     </row>
@@ -2492,7 +2737,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
-      <c r="G218" s="1"/>
+      <c r="G218" s="4"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
     </row>
@@ -2501,7 +2746,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
-      <c r="G219" s="1"/>
+      <c r="G219" s="4"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
     </row>
@@ -2510,7 +2755,7 @@
       <c r="D220" s="1"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
-      <c r="G220" s="1"/>
+      <c r="G220" s="4"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
     </row>
@@ -2519,7 +2764,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
-      <c r="G221" s="1"/>
+      <c r="G221" s="4"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
@@ -2528,7 +2773,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
-      <c r="G222" s="1"/>
+      <c r="G222" s="4"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
     </row>
@@ -2537,7 +2782,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
-      <c r="G223" s="1"/>
+      <c r="G223" s="4"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
@@ -2546,7 +2791,7 @@
       <c r="D224" s="1"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
-      <c r="G224" s="1"/>
+      <c r="G224" s="4"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
     </row>
@@ -2555,7 +2800,7 @@
       <c r="D225" s="1"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
-      <c r="G225" s="1"/>
+      <c r="G225" s="4"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
     </row>
@@ -2564,7 +2809,7 @@
       <c r="D226" s="1"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
-      <c r="G226" s="1"/>
+      <c r="G226" s="4"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
     </row>
@@ -2573,7 +2818,7 @@
       <c r="D227" s="1"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
-      <c r="G227" s="1"/>
+      <c r="G227" s="4"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
     </row>
@@ -2582,7 +2827,7 @@
       <c r="D228" s="1"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
-      <c r="G228" s="1"/>
+      <c r="G228" s="4"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
     </row>
@@ -2591,7 +2836,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
-      <c r="G229" s="1"/>
+      <c r="G229" s="4"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
     </row>
@@ -2600,7 +2845,7 @@
       <c r="D230" s="1"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
-      <c r="G230" s="1"/>
+      <c r="G230" s="4"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
     </row>
@@ -2609,7 +2854,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
-      <c r="G231" s="1"/>
+      <c r="G231" s="4"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
     </row>
@@ -2618,7 +2863,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
-      <c r="G232" s="1"/>
+      <c r="G232" s="4"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
     </row>
@@ -2627,7 +2872,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
-      <c r="G233" s="1"/>
+      <c r="G233" s="4"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
     </row>
@@ -2636,7 +2881,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
-      <c r="G234" s="1"/>
+      <c r="G234" s="4"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
@@ -2645,7 +2890,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
-      <c r="G235" s="1"/>
+      <c r="G235" s="4"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
     </row>
@@ -2654,7 +2899,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
-      <c r="G236" s="1"/>
+      <c r="G236" s="4"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
     </row>
@@ -2663,7 +2908,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
-      <c r="G237" s="1"/>
+      <c r="G237" s="4"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
     </row>
@@ -2672,7 +2917,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
-      <c r="G238" s="1"/>
+      <c r="G238" s="4"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
     </row>
@@ -2681,7 +2926,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
-      <c r="G239" s="1"/>
+      <c r="G239" s="4"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
     </row>
@@ -2690,7 +2935,7 @@
       <c r="D240" s="1"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
-      <c r="G240" s="1"/>
+      <c r="G240" s="4"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
@@ -2699,7 +2944,7 @@
       <c r="D241" s="1"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
-      <c r="G241" s="1"/>
+      <c r="G241" s="4"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
@@ -2708,7 +2953,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
-      <c r="G242" s="1"/>
+      <c r="G242" s="4"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
     </row>
@@ -2717,7 +2962,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
-      <c r="G243" s="1"/>
+      <c r="G243" s="4"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
@@ -2726,7 +2971,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
-      <c r="G244" s="1"/>
+      <c r="G244" s="4"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
@@ -2735,7 +2980,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
-      <c r="G245" s="1"/>
+      <c r="G245" s="4"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
@@ -2744,7 +2989,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
-      <c r="G246" s="1"/>
+      <c r="G246" s="4"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
@@ -2753,7 +2998,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
-      <c r="G247" s="1"/>
+      <c r="G247" s="4"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
@@ -2762,7 +3007,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
-      <c r="G248" s="1"/>
+      <c r="G248" s="4"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
@@ -2771,7 +3016,7 @@
       <c r="D249" s="1"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
-      <c r="G249" s="1"/>
+      <c r="G249" s="4"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
     </row>
@@ -2780,7 +3025,7 @@
       <c r="D250" s="1"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
-      <c r="G250" s="1"/>
+      <c r="G250" s="4"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
@@ -2789,7 +3034,7 @@
       <c r="D251" s="1"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
-      <c r="G251" s="1"/>
+      <c r="G251" s="4"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
     </row>
@@ -2798,7 +3043,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
-      <c r="G252" s="1"/>
+      <c r="G252" s="4"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
     </row>
@@ -2807,7 +3052,7 @@
       <c r="D253" s="1"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
-      <c r="G253" s="1"/>
+      <c r="G253" s="4"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
     </row>
@@ -2816,7 +3061,7 @@
       <c r="D254" s="1"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
-      <c r="G254" s="1"/>
+      <c r="G254" s="4"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
     </row>
@@ -2825,7 +3070,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
-      <c r="G255" s="1"/>
+      <c r="G255" s="4"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
     </row>
@@ -2834,7 +3079,7 @@
       <c r="D256" s="1"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
-      <c r="G256" s="1"/>
+      <c r="G256" s="4"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
@@ -2843,7 +3088,7 @@
       <c r="D257" s="1"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
-      <c r="G257" s="1"/>
+      <c r="G257" s="4"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
     </row>
@@ -2852,7 +3097,7 @@
       <c r="D258" s="1"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
-      <c r="G258" s="1"/>
+      <c r="G258" s="4"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
     </row>
@@ -2861,7 +3106,7 @@
       <c r="D259" s="1"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
-      <c r="G259" s="1"/>
+      <c r="G259" s="4"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
     </row>
@@ -2870,7 +3115,7 @@
       <c r="D260" s="1"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
-      <c r="G260" s="1"/>
+      <c r="G260" s="4"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
@@ -2879,7 +3124,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
-      <c r="G261" s="1"/>
+      <c r="G261" s="4"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
     </row>
@@ -2888,7 +3133,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
-      <c r="G262" s="1"/>
+      <c r="G262" s="4"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
     </row>
@@ -2897,7 +3142,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
-      <c r="G263" s="1"/>
+      <c r="G263" s="4"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
     </row>
@@ -2906,7 +3151,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
-      <c r="G264" s="1"/>
+      <c r="G264" s="4"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
     </row>
@@ -2915,7 +3160,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
-      <c r="G265" s="1"/>
+      <c r="G265" s="4"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
     </row>
@@ -2924,7 +3169,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
-      <c r="G266" s="1"/>
+      <c r="G266" s="4"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
     </row>
@@ -2933,7 +3178,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
-      <c r="G267" s="1"/>
+      <c r="G267" s="4"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
     </row>
@@ -2942,7 +3187,7 @@
       <c r="D268" s="1"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
-      <c r="G268" s="1"/>
+      <c r="G268" s="4"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
     </row>
@@ -2951,7 +3196,7 @@
       <c r="D269" s="1"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
-      <c r="G269" s="1"/>
+      <c r="G269" s="4"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
     </row>
@@ -2960,7 +3205,7 @@
       <c r="D270" s="1"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
-      <c r="G270" s="1"/>
+      <c r="G270" s="4"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
     </row>
@@ -2969,7 +3214,7 @@
       <c r="D271" s="1"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
-      <c r="G271" s="1"/>
+      <c r="G271" s="4"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
     </row>
@@ -2978,7 +3223,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
-      <c r="G272" s="1"/>
+      <c r="G272" s="4"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
     </row>
@@ -2987,7 +3232,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
-      <c r="G273" s="1"/>
+      <c r="G273" s="4"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
     </row>
@@ -2996,7 +3241,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
-      <c r="G274" s="1"/>
+      <c r="G274" s="4"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
@@ -3005,7 +3250,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
-      <c r="G275" s="1"/>
+      <c r="G275" s="4"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
     </row>
@@ -3014,7 +3259,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
-      <c r="G276" s="1"/>
+      <c r="G276" s="4"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
     </row>
@@ -3023,7 +3268,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
-      <c r="G277" s="1"/>
+      <c r="G277" s="4"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
     </row>
@@ -3032,7 +3277,7 @@
       <c r="D278" s="1"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
-      <c r="G278" s="1"/>
+      <c r="G278" s="4"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
     </row>
@@ -3041,7 +3286,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
-      <c r="G279" s="1"/>
+      <c r="G279" s="4"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
     </row>
@@ -3050,7 +3295,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
-      <c r="G280" s="1"/>
+      <c r="G280" s="4"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
@@ -3059,7 +3304,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
-      <c r="G281" s="1"/>
+      <c r="G281" s="4"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
     </row>
@@ -3068,7 +3313,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
-      <c r="G282" s="1"/>
+      <c r="G282" s="4"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
     </row>
@@ -3077,7 +3322,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
-      <c r="G283" s="1"/>
+      <c r="G283" s="4"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
     </row>
@@ -3086,7 +3331,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
-      <c r="G284" s="1"/>
+      <c r="G284" s="4"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
     </row>
@@ -3095,7 +3340,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
-      <c r="G285" s="1"/>
+      <c r="G285" s="4"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
     </row>
@@ -3104,7 +3349,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
-      <c r="G286" s="1"/>
+      <c r="G286" s="4"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
     </row>
@@ -3113,7 +3358,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
-      <c r="G287" s="1"/>
+      <c r="G287" s="4"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
     </row>
@@ -3122,7 +3367,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
-      <c r="G288" s="1"/>
+      <c r="G288" s="4"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
     </row>
@@ -3131,7 +3376,7 @@
       <c r="D289" s="1"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
-      <c r="G289" s="1"/>
+      <c r="G289" s="4"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
     </row>
@@ -3140,7 +3385,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
-      <c r="G290" s="1"/>
+      <c r="G290" s="4"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
     </row>
@@ -3149,7 +3394,7 @@
       <c r="D291" s="1"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
-      <c r="G291" s="1"/>
+      <c r="G291" s="4"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
     </row>
@@ -3158,7 +3403,7 @@
       <c r="D292" s="1"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
-      <c r="G292" s="1"/>
+      <c r="G292" s="4"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
     </row>
@@ -3167,7 +3412,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
-      <c r="G293" s="1"/>
+      <c r="G293" s="4"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
     </row>
@@ -3176,7 +3421,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
-      <c r="G294" s="1"/>
+      <c r="G294" s="4"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
     </row>
@@ -3185,7 +3430,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
-      <c r="G295" s="1"/>
+      <c r="G295" s="4"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
     </row>
@@ -3194,7 +3439,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
-      <c r="G296" s="1"/>
+      <c r="G296" s="4"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
     </row>
@@ -3203,7 +3448,7 @@
       <c r="D297" s="1"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
-      <c r="G297" s="1"/>
+      <c r="G297" s="4"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
     </row>
@@ -3212,7 +3457,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
-      <c r="G298" s="1"/>
+      <c r="G298" s="4"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
     </row>
@@ -3221,7 +3466,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
-      <c r="G299" s="1"/>
+      <c r="G299" s="4"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
     </row>
@@ -3230,7 +3475,7 @@
       <c r="D300" s="1"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
-      <c r="G300" s="1"/>
+      <c r="G300" s="4"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
     </row>
@@ -3239,7 +3484,7 @@
       <c r="D301" s="1"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
-      <c r="G301" s="1"/>
+      <c r="G301" s="4"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
     </row>
@@ -3248,7 +3493,7 @@
       <c r="D302" s="1"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
-      <c r="G302" s="1"/>
+      <c r="G302" s="4"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
     </row>
@@ -3257,7 +3502,7 @@
       <c r="D303" s="1"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
-      <c r="G303" s="1"/>
+      <c r="G303" s="4"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
     </row>
@@ -3266,7 +3511,7 @@
       <c r="D304" s="1"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
-      <c r="G304" s="1"/>
+      <c r="G304" s="4"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
     </row>
@@ -3275,7 +3520,7 @@
       <c r="D305" s="1"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
-      <c r="G305" s="1"/>
+      <c r="G305" s="4"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
     </row>
@@ -3284,7 +3529,7 @@
       <c r="D306" s="1"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
-      <c r="G306" s="1"/>
+      <c r="G306" s="4"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
     </row>
@@ -3293,7 +3538,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
-      <c r="G307" s="1"/>
+      <c r="G307" s="4"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
     </row>
@@ -3302,7 +3547,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
-      <c r="G308" s="1"/>
+      <c r="G308" s="4"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
     </row>
@@ -3311,7 +3556,7 @@
       <c r="D309" s="1"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
-      <c r="G309" s="1"/>
+      <c r="G309" s="4"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
     </row>
@@ -3320,7 +3565,7 @@
       <c r="D310" s="1"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
-      <c r="G310" s="1"/>
+      <c r="G310" s="4"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
@@ -3329,7 +3574,7 @@
       <c r="D311" s="1"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
-      <c r="G311" s="1"/>
+      <c r="G311" s="4"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
     </row>
@@ -3338,7 +3583,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
-      <c r="G312" s="1"/>
+      <c r="G312" s="4"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
     </row>
@@ -3347,7 +3592,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
-      <c r="G313" s="1"/>
+      <c r="G313" s="4"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
     </row>
@@ -3356,7 +3601,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
-      <c r="G314" s="1"/>
+      <c r="G314" s="4"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
     </row>
@@ -3365,7 +3610,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
-      <c r="G315" s="1"/>
+      <c r="G315" s="4"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
     </row>
@@ -3374,7 +3619,7 @@
       <c r="D316" s="1"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
-      <c r="G316" s="1"/>
+      <c r="G316" s="4"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
     </row>
@@ -3383,7 +3628,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
-      <c r="G317" s="1"/>
+      <c r="G317" s="4"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
     </row>
@@ -3392,7 +3637,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
-      <c r="G318" s="1"/>
+      <c r="G318" s="4"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
     </row>
@@ -3401,7 +3646,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
-      <c r="G319" s="1"/>
+      <c r="G319" s="4"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
     </row>
@@ -3410,7 +3655,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
-      <c r="G320" s="1"/>
+      <c r="G320" s="4"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
     </row>
@@ -3419,7 +3664,7 @@
       <c r="D321" s="1"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
-      <c r="G321" s="1"/>
+      <c r="G321" s="4"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
     </row>
@@ -3428,7 +3673,7 @@
       <c r="D322" s="1"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
-      <c r="G322" s="1"/>
+      <c r="G322" s="4"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
     </row>
@@ -3437,7 +3682,7 @@
       <c r="D323" s="1"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
-      <c r="G323" s="1"/>
+      <c r="G323" s="4"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
     </row>
@@ -3446,7 +3691,7 @@
       <c r="D324" s="1"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
-      <c r="G324" s="1"/>
+      <c r="G324" s="4"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
     </row>
@@ -3455,7 +3700,7 @@
       <c r="D325" s="1"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
-      <c r="G325" s="1"/>
+      <c r="G325" s="4"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
     </row>
@@ -3464,7 +3709,7 @@
       <c r="D326" s="1"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
-      <c r="G326" s="1"/>
+      <c r="G326" s="4"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
     </row>
@@ -3473,7 +3718,7 @@
       <c r="D327" s="1"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
-      <c r="G327" s="1"/>
+      <c r="G327" s="4"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
     </row>
@@ -3482,7 +3727,7 @@
       <c r="D328" s="1"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
-      <c r="G328" s="1"/>
+      <c r="G328" s="4"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
     </row>
@@ -3491,7 +3736,7 @@
       <c r="D329" s="1"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
-      <c r="G329" s="1"/>
+      <c r="G329" s="4"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
     </row>
@@ -3500,7 +3745,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
-      <c r="G330" s="1"/>
+      <c r="G330" s="4"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
     </row>
@@ -3509,7 +3754,7 @@
       <c r="D331" s="1"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
-      <c r="G331" s="1"/>
+      <c r="G331" s="4"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
     </row>
@@ -3518,7 +3763,7 @@
       <c r="D332" s="1"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
-      <c r="G332" s="1"/>
+      <c r="G332" s="4"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
     </row>
@@ -3527,7 +3772,7 @@
       <c r="D333" s="1"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
-      <c r="G333" s="1"/>
+      <c r="G333" s="4"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
     </row>
@@ -3536,7 +3781,7 @@
       <c r="D334" s="1"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
-      <c r="G334" s="1"/>
+      <c r="G334" s="4"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
     </row>
@@ -3545,7 +3790,7 @@
       <c r="D335" s="1"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
-      <c r="G335" s="1"/>
+      <c r="G335" s="4"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
     </row>
@@ -3554,7 +3799,7 @@
       <c r="D336" s="1"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
-      <c r="G336" s="1"/>
+      <c r="G336" s="4"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
     </row>
@@ -3563,7 +3808,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
-      <c r="G337" s="1"/>
+      <c r="G337" s="4"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
     </row>
@@ -3572,7 +3817,7 @@
       <c r="D338" s="1"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
-      <c r="G338" s="1"/>
+      <c r="G338" s="4"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
     </row>
@@ -3581,7 +3826,7 @@
       <c r="D339" s="1"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
-      <c r="G339" s="1"/>
+      <c r="G339" s="4"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
     </row>
@@ -3590,7 +3835,7 @@
       <c r="D340" s="1"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
-      <c r="G340" s="1"/>
+      <c r="G340" s="4"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
     </row>
@@ -3599,7 +3844,7 @@
       <c r="D341" s="1"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
-      <c r="G341" s="1"/>
+      <c r="G341" s="4"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
     </row>
@@ -3608,7 +3853,7 @@
       <c r="D342" s="1"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
-      <c r="G342" s="1"/>
+      <c r="G342" s="4"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
     </row>
@@ -3617,7 +3862,7 @@
       <c r="D343" s="1"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
-      <c r="G343" s="1"/>
+      <c r="G343" s="4"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
     </row>
@@ -3626,7 +3871,7 @@
       <c r="D344" s="1"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
-      <c r="G344" s="1"/>
+      <c r="G344" s="4"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
     </row>
@@ -3635,7 +3880,7 @@
       <c r="D345" s="1"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
-      <c r="G345" s="1"/>
+      <c r="G345" s="4"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
     </row>
@@ -3644,7 +3889,7 @@
       <c r="D346" s="1"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
-      <c r="G346" s="1"/>
+      <c r="G346" s="4"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
     </row>
@@ -3653,7 +3898,7 @@
       <c r="D347" s="1"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
-      <c r="G347" s="1"/>
+      <c r="G347" s="4"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
     </row>
@@ -3662,7 +3907,7 @@
       <c r="D348" s="1"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
-      <c r="G348" s="1"/>
+      <c r="G348" s="4"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
     </row>
@@ -3671,7 +3916,7 @@
       <c r="D349" s="1"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
-      <c r="G349" s="1"/>
+      <c r="G349" s="4"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
     </row>
@@ -3680,7 +3925,7 @@
       <c r="D350" s="1"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
-      <c r="G350" s="1"/>
+      <c r="G350" s="4"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
     </row>
@@ -3689,7 +3934,7 @@
       <c r="D351" s="1"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
-      <c r="G351" s="1"/>
+      <c r="G351" s="4"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
     </row>
@@ -3698,7 +3943,7 @@
       <c r="D352" s="1"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
-      <c r="G352" s="1"/>
+      <c r="G352" s="4"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
     </row>
@@ -3707,7 +3952,7 @@
       <c r="D353" s="1"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
-      <c r="G353" s="1"/>
+      <c r="G353" s="4"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
     </row>
@@ -3716,7 +3961,7 @@
       <c r="D354" s="1"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
-      <c r="G354" s="1"/>
+      <c r="G354" s="4"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
     </row>
@@ -3725,7 +3970,7 @@
       <c r="D355" s="1"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
-      <c r="G355" s="1"/>
+      <c r="G355" s="4"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
     </row>
@@ -3734,7 +3979,7 @@
       <c r="D356" s="1"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
-      <c r="G356" s="1"/>
+      <c r="G356" s="4"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
     </row>
@@ -3743,7 +3988,7 @@
       <c r="D357" s="1"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
-      <c r="G357" s="1"/>
+      <c r="G357" s="4"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
     </row>
@@ -3752,7 +3997,7 @@
       <c r="D358" s="1"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
-      <c r="G358" s="1"/>
+      <c r="G358" s="4"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
     </row>
@@ -3761,7 +4006,7 @@
       <c r="D359" s="1"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
-      <c r="G359" s="1"/>
+      <c r="G359" s="4"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
     </row>
@@ -3770,7 +4015,7 @@
       <c r="D360" s="1"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
-      <c r="G360" s="1"/>
+      <c r="G360" s="4"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
     </row>
@@ -3779,7 +4024,7 @@
       <c r="D361" s="1"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
-      <c r="G361" s="1"/>
+      <c r="G361" s="4"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
     </row>
@@ -3788,7 +4033,7 @@
       <c r="D362" s="1"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
-      <c r="G362" s="1"/>
+      <c r="G362" s="4"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
     </row>
@@ -3797,7 +4042,7 @@
       <c r="D363" s="1"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
-      <c r="G363" s="1"/>
+      <c r="G363" s="4"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
     </row>
@@ -3806,7 +4051,7 @@
       <c r="D364" s="1"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
-      <c r="G364" s="1"/>
+      <c r="G364" s="4"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
     </row>
@@ -3815,7 +4060,7 @@
       <c r="D365" s="1"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
-      <c r="G365" s="1"/>
+      <c r="G365" s="4"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
     </row>
@@ -3824,7 +4069,7 @@
       <c r="D366" s="1"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
-      <c r="G366" s="1"/>
+      <c r="G366" s="4"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
     </row>
@@ -3833,7 +4078,7 @@
       <c r="D367" s="1"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
-      <c r="G367" s="1"/>
+      <c r="G367" s="4"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
     </row>
@@ -3842,7 +4087,7 @@
       <c r="D368" s="1"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
-      <c r="G368" s="1"/>
+      <c r="G368" s="4"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
     </row>
@@ -3851,7 +4096,7 @@
       <c r="D369" s="1"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
-      <c r="G369" s="1"/>
+      <c r="G369" s="4"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
     </row>
@@ -3860,7 +4105,7 @@
       <c r="D370" s="1"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
-      <c r="G370" s="1"/>
+      <c r="G370" s="4"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
     </row>
@@ -3869,7 +4114,7 @@
       <c r="D371" s="1"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
-      <c r="G371" s="1"/>
+      <c r="G371" s="4"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
     </row>
@@ -3878,7 +4123,7 @@
       <c r="D372" s="1"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
-      <c r="G372" s="1"/>
+      <c r="G372" s="4"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
     </row>
@@ -3887,7 +4132,7 @@
       <c r="D373" s="1"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
-      <c r="G373" s="1"/>
+      <c r="G373" s="4"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
     </row>
@@ -3896,7 +4141,7 @@
       <c r="D374" s="1"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
-      <c r="G374" s="1"/>
+      <c r="G374" s="4"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
     </row>
@@ -3905,7 +4150,7 @@
       <c r="D375" s="1"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
-      <c r="G375" s="1"/>
+      <c r="G375" s="4"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
     </row>
@@ -3914,7 +4159,7 @@
       <c r="D376" s="1"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
-      <c r="G376" s="1"/>
+      <c r="G376" s="4"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
     </row>
@@ -3923,7 +4168,7 @@
       <c r="D377" s="1"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
-      <c r="G377" s="1"/>
+      <c r="G377" s="4"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
     </row>
@@ -3932,7 +4177,7 @@
       <c r="D378" s="1"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
-      <c r="G378" s="1"/>
+      <c r="G378" s="4"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
     </row>
@@ -3941,7 +4186,7 @@
       <c r="D379" s="1"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
-      <c r="G379" s="1"/>
+      <c r="G379" s="4"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
     </row>
@@ -3950,7 +4195,7 @@
       <c r="D380" s="1"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
-      <c r="G380" s="1"/>
+      <c r="G380" s="4"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
     </row>
@@ -3959,7 +4204,7 @@
       <c r="D381" s="1"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
-      <c r="G381" s="1"/>
+      <c r="G381" s="4"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
     </row>
@@ -3968,7 +4213,7 @@
       <c r="D382" s="1"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
-      <c r="G382" s="1"/>
+      <c r="G382" s="4"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
     </row>
@@ -3977,7 +4222,7 @@
       <c r="D383" s="1"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
-      <c r="G383" s="1"/>
+      <c r="G383" s="4"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
     </row>
@@ -3986,7 +4231,7 @@
       <c r="D384" s="1"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
-      <c r="G384" s="1"/>
+      <c r="G384" s="4"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
     </row>
@@ -3995,7 +4240,7 @@
       <c r="D385" s="1"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
-      <c r="G385" s="1"/>
+      <c r="G385" s="4"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
     </row>
@@ -4004,7 +4249,7 @@
       <c r="D386" s="1"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
-      <c r="G386" s="1"/>
+      <c r="G386" s="4"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
     </row>
@@ -4013,7 +4258,7 @@
       <c r="D387" s="1"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
-      <c r="G387" s="1"/>
+      <c r="G387" s="4"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
     </row>
@@ -4022,7 +4267,7 @@
       <c r="D388" s="1"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
-      <c r="G388" s="1"/>
+      <c r="G388" s="4"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
     </row>
@@ -4031,7 +4276,7 @@
       <c r="D389" s="1"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
-      <c r="G389" s="1"/>
+      <c r="G389" s="4"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
     </row>
@@ -4040,7 +4285,7 @@
       <c r="D390" s="1"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
-      <c r="G390" s="1"/>
+      <c r="G390" s="4"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
     </row>
@@ -4049,7 +4294,7 @@
       <c r="D391" s="1"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
-      <c r="G391" s="1"/>
+      <c r="G391" s="4"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
     </row>
@@ -4058,7 +4303,7 @@
       <c r="D392" s="1"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
-      <c r="G392" s="1"/>
+      <c r="G392" s="4"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
     </row>
@@ -4067,7 +4312,7 @@
       <c r="D393" s="1"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
-      <c r="G393" s="1"/>
+      <c r="G393" s="4"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
     </row>
@@ -4076,7 +4321,7 @@
       <c r="D394" s="1"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
-      <c r="G394" s="1"/>
+      <c r="G394" s="4"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
     </row>
@@ -4085,7 +4330,7 @@
       <c r="D395" s="1"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
-      <c r="G395" s="1"/>
+      <c r="G395" s="4"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
     </row>
@@ -4094,7 +4339,7 @@
       <c r="D396" s="1"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
-      <c r="G396" s="1"/>
+      <c r="G396" s="4"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
     </row>
@@ -4103,7 +4348,7 @@
       <c r="D397" s="1"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
-      <c r="G397" s="1"/>
+      <c r="G397" s="4"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
     </row>
@@ -4112,7 +4357,7 @@
       <c r="D398" s="1"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
-      <c r="G398" s="1"/>
+      <c r="G398" s="4"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
     </row>
@@ -4121,7 +4366,7 @@
       <c r="D399" s="1"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
-      <c r="G399" s="1"/>
+      <c r="G399" s="4"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
     </row>
@@ -4130,7 +4375,7 @@
       <c r="D400" s="1"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
-      <c r="G400" s="1"/>
+      <c r="G400" s="4"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
     </row>
@@ -4139,7 +4384,7 @@
       <c r="D401" s="1"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
-      <c r="G401" s="1"/>
+      <c r="G401" s="4"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
     </row>
@@ -4148,7 +4393,7 @@
       <c r="D402" s="1"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
-      <c r="G402" s="1"/>
+      <c r="G402" s="4"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
     </row>
@@ -4157,7 +4402,7 @@
       <c r="D403" s="1"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
-      <c r="G403" s="1"/>
+      <c r="G403" s="4"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
     </row>
@@ -4166,7 +4411,7 @@
       <c r="D404" s="1"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
-      <c r="G404" s="1"/>
+      <c r="G404" s="4"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
     </row>
@@ -4175,7 +4420,7 @@
       <c r="D405" s="1"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
-      <c r="G405" s="1"/>
+      <c r="G405" s="4"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
     </row>
@@ -4184,7 +4429,7 @@
       <c r="D406" s="1"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
-      <c r="G406" s="1"/>
+      <c r="G406" s="4"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
     </row>
@@ -4193,7 +4438,7 @@
       <c r="D407" s="1"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
-      <c r="G407" s="1"/>
+      <c r="G407" s="4"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
     </row>
@@ -4202,7 +4447,7 @@
       <c r="D408" s="1"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
-      <c r="G408" s="1"/>
+      <c r="G408" s="4"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
     </row>
@@ -4211,7 +4456,7 @@
       <c r="D409" s="1"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
-      <c r="G409" s="1"/>
+      <c r="G409" s="4"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
     </row>
@@ -4220,7 +4465,7 @@
       <c r="D410" s="1"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
-      <c r="G410" s="1"/>
+      <c r="G410" s="4"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
     </row>
@@ -4229,7 +4474,7 @@
       <c r="D411" s="1"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
-      <c r="G411" s="1"/>
+      <c r="G411" s="4"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
     </row>
@@ -4238,7 +4483,7 @@
       <c r="D412" s="1"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
-      <c r="G412" s="1"/>
+      <c r="G412" s="4"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
     </row>
@@ -4247,7 +4492,7 @@
       <c r="D413" s="1"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
-      <c r="G413" s="1"/>
+      <c r="G413" s="4"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
     </row>
@@ -4256,7 +4501,7 @@
       <c r="D414" s="1"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
-      <c r="G414" s="1"/>
+      <c r="G414" s="4"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
     </row>
@@ -4265,7 +4510,7 @@
       <c r="D415" s="1"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
-      <c r="G415" s="1"/>
+      <c r="G415" s="4"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
     </row>
@@ -4274,7 +4519,7 @@
       <c r="D416" s="1"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
-      <c r="G416" s="1"/>
+      <c r="G416" s="4"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
     </row>
@@ -4283,7 +4528,7 @@
       <c r="D417" s="1"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
-      <c r="G417" s="1"/>
+      <c r="G417" s="4"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
     </row>
@@ -4292,7 +4537,7 @@
       <c r="D418" s="1"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
-      <c r="G418" s="1"/>
+      <c r="G418" s="4"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
     </row>
@@ -4301,7 +4546,7 @@
       <c r="D419" s="1"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
-      <c r="G419" s="1"/>
+      <c r="G419" s="4"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
     </row>
@@ -4310,7 +4555,7 @@
       <c r="D420" s="1"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
-      <c r="G420" s="1"/>
+      <c r="G420" s="4"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
     </row>
@@ -4319,7 +4564,7 @@
       <c r="D421" s="1"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
-      <c r="G421" s="1"/>
+      <c r="G421" s="4"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
     </row>
@@ -4328,7 +4573,7 @@
       <c r="D422" s="1"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
-      <c r="G422" s="1"/>
+      <c r="G422" s="4"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
     </row>
@@ -4337,7 +4582,7 @@
       <c r="D423" s="1"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
-      <c r="G423" s="1"/>
+      <c r="G423" s="4"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
     </row>
@@ -4346,7 +4591,7 @@
       <c r="D424" s="1"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
-      <c r="G424" s="1"/>
+      <c r="G424" s="4"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
     </row>
@@ -4355,7 +4600,7 @@
       <c r="D425" s="1"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
-      <c r="G425" s="1"/>
+      <c r="G425" s="4"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
     </row>
@@ -4364,7 +4609,7 @@
       <c r="D426" s="1"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
-      <c r="G426" s="1"/>
+      <c r="G426" s="4"/>
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
     </row>
@@ -4373,7 +4618,7 @@
       <c r="D427" s="1"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
-      <c r="G427" s="1"/>
+      <c r="G427" s="4"/>
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
     </row>
@@ -4382,7 +4627,7 @@
       <c r="D428" s="1"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
-      <c r="G428" s="1"/>
+      <c r="G428" s="4"/>
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
     </row>
@@ -4391,7 +4636,7 @@
       <c r="D429" s="1"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
-      <c r="G429" s="1"/>
+      <c r="G429" s="4"/>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
     </row>
@@ -4400,7 +4645,7 @@
       <c r="D430" s="1"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
-      <c r="G430" s="1"/>
+      <c r="G430" s="4"/>
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
     </row>
@@ -4409,7 +4654,7 @@
       <c r="D431" s="1"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
-      <c r="G431" s="1"/>
+      <c r="G431" s="4"/>
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
     </row>
@@ -4418,7 +4663,7 @@
       <c r="D432" s="1"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
-      <c r="G432" s="1"/>
+      <c r="G432" s="4"/>
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
     </row>
@@ -4427,7 +4672,7 @@
       <c r="D433" s="1"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
-      <c r="G433" s="1"/>
+      <c r="G433" s="4"/>
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
     </row>
@@ -4436,7 +4681,7 @@
       <c r="D434" s="1"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
-      <c r="G434" s="1"/>
+      <c r="G434" s="4"/>
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
     </row>
@@ -4445,7 +4690,7 @@
       <c r="D435" s="1"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
-      <c r="G435" s="1"/>
+      <c r="G435" s="4"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
     </row>
@@ -4454,7 +4699,7 @@
       <c r="D436" s="1"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
-      <c r="G436" s="1"/>
+      <c r="G436" s="4"/>
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
     </row>
@@ -4463,7 +4708,7 @@
       <c r="D437" s="1"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
-      <c r="G437" s="1"/>
+      <c r="G437" s="4"/>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
     </row>
@@ -4472,7 +4717,7 @@
       <c r="D438" s="1"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
-      <c r="G438" s="1"/>
+      <c r="G438" s="4"/>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
     </row>
@@ -4481,7 +4726,7 @@
       <c r="D439" s="1"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
-      <c r="G439" s="1"/>
+      <c r="G439" s="4"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
     </row>
@@ -4490,7 +4735,7 @@
       <c r="D440" s="1"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
-      <c r="G440" s="1"/>
+      <c r="G440" s="4"/>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
     </row>
@@ -4499,7 +4744,7 @@
       <c r="D441" s="1"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
-      <c r="G441" s="1"/>
+      <c r="G441" s="4"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
     </row>
@@ -4508,7 +4753,7 @@
       <c r="D442" s="1"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
-      <c r="G442" s="1"/>
+      <c r="G442" s="4"/>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
     </row>
@@ -4517,7 +4762,7 @@
       <c r="D443" s="1"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
-      <c r="G443" s="1"/>
+      <c r="G443" s="4"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
     </row>
@@ -4526,7 +4771,7 @@
       <c r="D444" s="1"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
-      <c r="G444" s="1"/>
+      <c r="G444" s="4"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
     </row>
@@ -4535,7 +4780,7 @@
       <c r="D445" s="1"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
-      <c r="G445" s="1"/>
+      <c r="G445" s="4"/>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
     </row>
@@ -4544,7 +4789,7 @@
       <c r="D446" s="1"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
-      <c r="G446" s="1"/>
+      <c r="G446" s="4"/>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
     </row>
@@ -4553,7 +4798,7 @@
       <c r="D447" s="1"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
-      <c r="G447" s="1"/>
+      <c r="G447" s="4"/>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
     </row>
@@ -4562,7 +4807,7 @@
       <c r="D448" s="1"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
-      <c r="G448" s="1"/>
+      <c r="G448" s="4"/>
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
     </row>
@@ -4571,7 +4816,7 @@
       <c r="D449" s="1"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
-      <c r="G449" s="1"/>
+      <c r="G449" s="4"/>
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
     </row>
@@ -4580,7 +4825,7 @@
       <c r="D450" s="1"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
-      <c r="G450" s="1"/>
+      <c r="G450" s="4"/>
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
     </row>
@@ -4589,7 +4834,7 @@
       <c r="D451" s="1"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
-      <c r="G451" s="1"/>
+      <c r="G451" s="4"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
     </row>
@@ -4598,7 +4843,7 @@
       <c r="D452" s="1"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
-      <c r="G452" s="1"/>
+      <c r="G452" s="4"/>
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
     </row>
@@ -4607,7 +4852,7 @@
       <c r="D453" s="1"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
-      <c r="G453" s="1"/>
+      <c r="G453" s="4"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
     </row>
@@ -4616,7 +4861,7 @@
       <c r="D454" s="1"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
-      <c r="G454" s="1"/>
+      <c r="G454" s="4"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
     </row>
@@ -4625,7 +4870,7 @@
       <c r="D455" s="1"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
-      <c r="G455" s="1"/>
+      <c r="G455" s="4"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
     </row>
@@ -4634,7 +4879,7 @@
       <c r="D456" s="1"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
-      <c r="G456" s="1"/>
+      <c r="G456" s="4"/>
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
     </row>
@@ -4643,7 +4888,7 @@
       <c r="D457" s="1"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
-      <c r="G457" s="1"/>
+      <c r="G457" s="4"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
     </row>
@@ -4652,7 +4897,7 @@
       <c r="D458" s="1"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
-      <c r="G458" s="1"/>
+      <c r="G458" s="4"/>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
     </row>
@@ -4661,7 +4906,7 @@
       <c r="D459" s="1"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
-      <c r="G459" s="1"/>
+      <c r="G459" s="4"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
     </row>
@@ -4670,7 +4915,7 @@
       <c r="D460" s="1"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
-      <c r="G460" s="1"/>
+      <c r="G460" s="4"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
     </row>
@@ -4679,7 +4924,7 @@
       <c r="D461" s="1"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
-      <c r="G461" s="1"/>
+      <c r="G461" s="4"/>
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
     </row>
@@ -4688,7 +4933,7 @@
       <c r="D462" s="1"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
-      <c r="G462" s="1"/>
+      <c r="G462" s="4"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
     </row>
@@ -4697,7 +4942,7 @@
       <c r="D463" s="1"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
-      <c r="G463" s="1"/>
+      <c r="G463" s="4"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
     </row>
@@ -4706,7 +4951,7 @@
       <c r="D464" s="1"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
-      <c r="G464" s="1"/>
+      <c r="G464" s="4"/>
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
     </row>
@@ -4715,7 +4960,7 @@
       <c r="D465" s="1"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
-      <c r="G465" s="1"/>
+      <c r="G465" s="4"/>
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
     </row>
@@ -4724,7 +4969,7 @@
       <c r="D466" s="1"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
-      <c r="G466" s="1"/>
+      <c r="G466" s="4"/>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
     </row>
@@ -4733,7 +4978,7 @@
       <c r="D467" s="1"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
-      <c r="G467" s="1"/>
+      <c r="G467" s="4"/>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
     </row>
@@ -4742,7 +4987,7 @@
       <c r="D468" s="1"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
-      <c r="G468" s="1"/>
+      <c r="G468" s="4"/>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
     </row>
@@ -4751,7 +4996,7 @@
       <c r="D469" s="1"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
-      <c r="G469" s="1"/>
+      <c r="G469" s="4"/>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
     </row>
@@ -4760,7 +5005,7 @@
       <c r="D470" s="1"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
-      <c r="G470" s="1"/>
+      <c r="G470" s="4"/>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
     </row>
@@ -4769,7 +5014,7 @@
       <c r="D471" s="1"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
-      <c r="G471" s="1"/>
+      <c r="G471" s="4"/>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
     </row>
@@ -4778,7 +5023,7 @@
       <c r="D472" s="1"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
-      <c r="G472" s="1"/>
+      <c r="G472" s="4"/>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
     </row>
@@ -4787,7 +5032,7 @@
       <c r="D473" s="1"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
-      <c r="G473" s="1"/>
+      <c r="G473" s="4"/>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
     </row>
@@ -4796,7 +5041,7 @@
       <c r="D474" s="1"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
-      <c r="G474" s="1"/>
+      <c r="G474" s="4"/>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
     </row>
@@ -4805,7 +5050,7 @@
       <c r="D475" s="1"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
-      <c r="G475" s="1"/>
+      <c r="G475" s="4"/>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
     </row>
@@ -4814,7 +5059,7 @@
       <c r="D476" s="1"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
-      <c r="G476" s="1"/>
+      <c r="G476" s="4"/>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
     </row>
@@ -4823,7 +5068,7 @@
       <c r="D477" s="1"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
-      <c r="G477" s="1"/>
+      <c r="G477" s="4"/>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
     </row>
@@ -4832,7 +5077,7 @@
       <c r="D478" s="1"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
-      <c r="G478" s="1"/>
+      <c r="G478" s="4"/>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
     </row>
@@ -4841,7 +5086,7 @@
       <c r="D479" s="1"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
-      <c r="G479" s="1"/>
+      <c r="G479" s="4"/>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
     </row>
@@ -4850,7 +5095,7 @@
       <c r="D480" s="1"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
-      <c r="G480" s="1"/>
+      <c r="G480" s="4"/>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
     </row>
@@ -4859,7 +5104,7 @@
       <c r="D481" s="1"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
-      <c r="G481" s="1"/>
+      <c r="G481" s="4"/>
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
     </row>
@@ -4868,7 +5113,7 @@
       <c r="D482" s="1"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
-      <c r="G482" s="1"/>
+      <c r="G482" s="4"/>
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
     </row>
@@ -4877,7 +5122,7 @@
       <c r="D483" s="1"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
-      <c r="G483" s="1"/>
+      <c r="G483" s="4"/>
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
     </row>
@@ -4886,7 +5131,7 @@
       <c r="D484" s="1"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
-      <c r="G484" s="1"/>
+      <c r="G484" s="4"/>
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
     </row>
@@ -4895,7 +5140,7 @@
       <c r="D485" s="1"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
-      <c r="G485" s="1"/>
+      <c r="G485" s="4"/>
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
     </row>
@@ -4904,7 +5149,7 @@
       <c r="D486" s="1"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
-      <c r="G486" s="1"/>
+      <c r="G486" s="4"/>
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
     </row>
@@ -4913,7 +5158,7 @@
       <c r="D487" s="1"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
-      <c r="G487" s="1"/>
+      <c r="G487" s="4"/>
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
     </row>
@@ -4922,7 +5167,7 @@
       <c r="D488" s="1"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
-      <c r="G488" s="1"/>
+      <c r="G488" s="4"/>
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
     </row>
@@ -4931,7 +5176,7 @@
       <c r="D489" s="1"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
-      <c r="G489" s="1"/>
+      <c r="G489" s="4"/>
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
     </row>
@@ -4940,7 +5185,7 @@
       <c r="D490" s="1"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
-      <c r="G490" s="1"/>
+      <c r="G490" s="4"/>
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
     </row>
@@ -4949,7 +5194,7 @@
       <c r="D491" s="1"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
-      <c r="G491" s="1"/>
+      <c r="G491" s="4"/>
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
     </row>
@@ -4958,7 +5203,7 @@
       <c r="D492" s="1"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
-      <c r="G492" s="1"/>
+      <c r="G492" s="4"/>
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
     </row>
@@ -4967,7 +5212,7 @@
       <c r="D493" s="1"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
-      <c r="G493" s="1"/>
+      <c r="G493" s="4"/>
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
     </row>
@@ -4976,7 +5221,7 @@
       <c r="D494" s="1"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
-      <c r="G494" s="1"/>
+      <c r="G494" s="4"/>
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
     </row>
@@ -4985,7 +5230,7 @@
       <c r="D495" s="1"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
-      <c r="G495" s="1"/>
+      <c r="G495" s="4"/>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
     </row>
@@ -4994,7 +5239,7 @@
       <c r="D496" s="1"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
-      <c r="G496" s="1"/>
+      <c r="G496" s="4"/>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
     </row>
@@ -5003,7 +5248,7 @@
       <c r="D497" s="1"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
-      <c r="G497" s="1"/>
+      <c r="G497" s="4"/>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
     </row>
@@ -5012,7 +5257,7 @@
       <c r="D498" s="1"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
-      <c r="G498" s="1"/>
+      <c r="G498" s="4"/>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
     </row>
@@ -5021,7 +5266,7 @@
       <c r="D499" s="1"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
-      <c r="G499" s="1"/>
+      <c r="G499" s="4"/>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
     </row>
@@ -5030,7 +5275,7 @@
       <c r="D500" s="1"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
-      <c r="G500" s="1"/>
+      <c r="G500" s="4"/>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
     </row>
@@ -5039,7 +5284,7 @@
       <c r="D501" s="1"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
-      <c r="G501" s="1"/>
+      <c r="G501" s="4"/>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
     </row>
@@ -5048,7 +5293,7 @@
       <c r="D502" s="1"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
-      <c r="G502" s="1"/>
+      <c r="G502" s="4"/>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
     </row>
@@ -5057,7 +5302,7 @@
       <c r="D503" s="1"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
-      <c r="G503" s="1"/>
+      <c r="G503" s="4"/>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
     </row>
@@ -5066,7 +5311,7 @@
       <c r="D504" s="1"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
-      <c r="G504" s="1"/>
+      <c r="G504" s="4"/>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
     </row>
@@ -5075,7 +5320,7 @@
       <c r="D505" s="1"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
-      <c r="G505" s="1"/>
+      <c r="G505" s="4"/>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
     </row>
@@ -5084,7 +5329,7 @@
       <c r="D506" s="1"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
-      <c r="G506" s="1"/>
+      <c r="G506" s="4"/>
       <c r="H506" s="1"/>
       <c r="I506" s="1"/>
     </row>
@@ -5093,7 +5338,7 @@
       <c r="D507" s="1"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
-      <c r="G507" s="1"/>
+      <c r="G507" s="4"/>
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
     </row>
@@ -5102,7 +5347,7 @@
       <c r="D508" s="1"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
-      <c r="G508" s="1"/>
+      <c r="G508" s="4"/>
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
     </row>
@@ -5111,7 +5356,7 @@
       <c r="D509" s="1"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
-      <c r="G509" s="1"/>
+      <c r="G509" s="4"/>
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
     </row>
@@ -5120,7 +5365,7 @@
       <c r="D510" s="1"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
-      <c r="G510" s="1"/>
+      <c r="G510" s="4"/>
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
     </row>
@@ -5129,7 +5374,7 @@
       <c r="D511" s="1"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
-      <c r="G511" s="1"/>
+      <c r="G511" s="4"/>
       <c r="H511" s="1"/>
       <c r="I511" s="1"/>
     </row>
@@ -5138,7 +5383,7 @@
       <c r="D512" s="1"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
-      <c r="G512" s="1"/>
+      <c r="G512" s="4"/>
       <c r="H512" s="1"/>
       <c r="I512" s="1"/>
     </row>
@@ -5147,7 +5392,7 @@
       <c r="D513" s="1"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
-      <c r="G513" s="1"/>
+      <c r="G513" s="4"/>
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
     </row>
@@ -5156,7 +5401,7 @@
       <c r="D514" s="1"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
-      <c r="G514" s="1"/>
+      <c r="G514" s="4"/>
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
     </row>
@@ -5165,7 +5410,7 @@
       <c r="D515" s="1"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
-      <c r="G515" s="1"/>
+      <c r="G515" s="4"/>
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
     </row>
@@ -5174,7 +5419,7 @@
       <c r="D516" s="1"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
-      <c r="G516" s="1"/>
+      <c r="G516" s="4"/>
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
     </row>
@@ -5183,7 +5428,7 @@
       <c r="D517" s="1"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
-      <c r="G517" s="1"/>
+      <c r="G517" s="4"/>
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
     </row>
@@ -5192,7 +5437,7 @@
       <c r="D518" s="1"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
-      <c r="G518" s="1"/>
+      <c r="G518" s="4"/>
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
     </row>
@@ -5201,7 +5446,7 @@
       <c r="D519" s="1"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
-      <c r="G519" s="1"/>
+      <c r="G519" s="4"/>
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
     </row>
@@ -5210,7 +5455,7 @@
       <c r="D520" s="1"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
-      <c r="G520" s="1"/>
+      <c r="G520" s="4"/>
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
     </row>
@@ -5219,7 +5464,7 @@
       <c r="D521" s="1"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
-      <c r="G521" s="1"/>
+      <c r="G521" s="4"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
     </row>
@@ -5228,7 +5473,7 @@
       <c r="D522" s="1"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
-      <c r="G522" s="1"/>
+      <c r="G522" s="4"/>
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
     </row>
@@ -5237,7 +5482,7 @@
       <c r="D523" s="1"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
-      <c r="G523" s="1"/>
+      <c r="G523" s="4"/>
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
     </row>
@@ -5246,7 +5491,7 @@
       <c r="D524" s="1"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
-      <c r="G524" s="1"/>
+      <c r="G524" s="4"/>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
     </row>
@@ -5255,7 +5500,7 @@
       <c r="D525" s="1"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
-      <c r="G525" s="1"/>
+      <c r="G525" s="4"/>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
     </row>
@@ -5264,7 +5509,7 @@
       <c r="D526" s="1"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
-      <c r="G526" s="1"/>
+      <c r="G526" s="4"/>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
     </row>
@@ -5273,7 +5518,7 @@
       <c r="D527" s="1"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
-      <c r="G527" s="1"/>
+      <c r="G527" s="4"/>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
     </row>
@@ -5282,7 +5527,7 @@
       <c r="D528" s="1"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
-      <c r="G528" s="1"/>
+      <c r="G528" s="4"/>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
     </row>
@@ -5291,7 +5536,7 @@
       <c r="D529" s="1"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
-      <c r="G529" s="1"/>
+      <c r="G529" s="4"/>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
     </row>
@@ -5300,7 +5545,7 @@
       <c r="D530" s="1"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
-      <c r="G530" s="1"/>
+      <c r="G530" s="4"/>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
     </row>
@@ -5309,7 +5554,7 @@
       <c r="D531" s="1"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
-      <c r="G531" s="1"/>
+      <c r="G531" s="4"/>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
     </row>
@@ -5318,7 +5563,7 @@
       <c r="D532" s="1"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
-      <c r="G532" s="1"/>
+      <c r="G532" s="4"/>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
     </row>
@@ -5327,7 +5572,7 @@
       <c r="D533" s="1"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
-      <c r="G533" s="1"/>
+      <c r="G533" s="4"/>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
     </row>
@@ -5336,7 +5581,7 @@
       <c r="D534" s="1"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
-      <c r="G534" s="1"/>
+      <c r="G534" s="4"/>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
     </row>
@@ -5345,7 +5590,7 @@
       <c r="D535" s="1"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
-      <c r="G535" s="1"/>
+      <c r="G535" s="4"/>
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
     </row>
@@ -5354,7 +5599,7 @@
       <c r="D536" s="1"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
-      <c r="G536" s="1"/>
+      <c r="G536" s="4"/>
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
     </row>
@@ -5363,7 +5608,7 @@
       <c r="D537" s="1"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
-      <c r="G537" s="1"/>
+      <c r="G537" s="4"/>
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
     </row>
@@ -5372,7 +5617,7 @@
       <c r="D538" s="1"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
-      <c r="G538" s="1"/>
+      <c r="G538" s="4"/>
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
     </row>
@@ -5381,7 +5626,7 @@
       <c r="D539" s="1"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
-      <c r="G539" s="1"/>
+      <c r="G539" s="4"/>
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
     </row>
@@ -5390,7 +5635,7 @@
       <c r="D540" s="1"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
-      <c r="G540" s="1"/>
+      <c r="G540" s="4"/>
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
     </row>
@@ -5399,7 +5644,7 @@
       <c r="D541" s="1"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
-      <c r="G541" s="1"/>
+      <c r="G541" s="4"/>
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
     </row>
@@ -5408,7 +5653,7 @@
       <c r="D542" s="1"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
-      <c r="G542" s="1"/>
+      <c r="G542" s="4"/>
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
     </row>
@@ -5417,7 +5662,7 @@
       <c r="D543" s="1"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
-      <c r="G543" s="1"/>
+      <c r="G543" s="4"/>
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
     </row>
@@ -5426,7 +5671,7 @@
       <c r="D544" s="1"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
-      <c r="G544" s="1"/>
+      <c r="G544" s="4"/>
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
     </row>
@@ -5435,7 +5680,7 @@
       <c r="D545" s="1"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
-      <c r="G545" s="1"/>
+      <c r="G545" s="4"/>
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
     </row>
@@ -5444,7 +5689,7 @@
       <c r="D546" s="1"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
-      <c r="G546" s="1"/>
+      <c r="G546" s="4"/>
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
     </row>
@@ -5453,7 +5698,7 @@
       <c r="D547" s="1"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
-      <c r="G547" s="1"/>
+      <c r="G547" s="4"/>
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
     </row>
@@ -5462,7 +5707,7 @@
       <c r="D548" s="1"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
-      <c r="G548" s="1"/>
+      <c r="G548" s="4"/>
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
     </row>
@@ -5471,7 +5716,7 @@
       <c r="D549" s="1"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
-      <c r="G549" s="1"/>
+      <c r="G549" s="4"/>
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
     </row>
@@ -5480,7 +5725,7 @@
       <c r="D550" s="1"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
-      <c r="G550" s="1"/>
+      <c r="G550" s="4"/>
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
     </row>
@@ -5489,7 +5734,7 @@
       <c r="D551" s="1"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
-      <c r="G551" s="1"/>
+      <c r="G551" s="4"/>
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
     </row>
@@ -5498,7 +5743,7 @@
       <c r="D552" s="1"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
-      <c r="G552" s="1"/>
+      <c r="G552" s="4"/>
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
     </row>
@@ -5507,7 +5752,7 @@
       <c r="D553" s="1"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
-      <c r="G553" s="1"/>
+      <c r="G553" s="4"/>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
     </row>
@@ -5516,7 +5761,7 @@
       <c r="D554" s="1"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
-      <c r="G554" s="1"/>
+      <c r="G554" s="4"/>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
     </row>
@@ -5525,7 +5770,7 @@
       <c r="D555" s="1"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
-      <c r="G555" s="1"/>
+      <c r="G555" s="4"/>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
     </row>
@@ -5534,7 +5779,7 @@
       <c r="D556" s="1"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
-      <c r="G556" s="1"/>
+      <c r="G556" s="4"/>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
     </row>
@@ -5543,7 +5788,7 @@
       <c r="D557" s="1"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
-      <c r="G557" s="1"/>
+      <c r="G557" s="4"/>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
     </row>
@@ -5552,7 +5797,7 @@
       <c r="D558" s="1"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
-      <c r="G558" s="1"/>
+      <c r="G558" s="4"/>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
     </row>
@@ -5561,7 +5806,7 @@
       <c r="D559" s="1"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
-      <c r="G559" s="1"/>
+      <c r="G559" s="4"/>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
     </row>
@@ -5570,7 +5815,7 @@
       <c r="D560" s="1"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
-      <c r="G560" s="1"/>
+      <c r="G560" s="4"/>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
     </row>
@@ -5579,7 +5824,7 @@
       <c r="D561" s="1"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
-      <c r="G561" s="1"/>
+      <c r="G561" s="4"/>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
     </row>
@@ -5588,7 +5833,7 @@
       <c r="D562" s="1"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
-      <c r="G562" s="1"/>
+      <c r="G562" s="4"/>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
     </row>
@@ -5597,7 +5842,7 @@
       <c r="D563" s="1"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
-      <c r="G563" s="1"/>
+      <c r="G563" s="4"/>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
     </row>
@@ -5606,7 +5851,7 @@
       <c r="D564" s="1"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
-      <c r="G564" s="1"/>
+      <c r="G564" s="4"/>
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
     </row>
@@ -5615,7 +5860,7 @@
       <c r="D565" s="1"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
-      <c r="G565" s="1"/>
+      <c r="G565" s="4"/>
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
     </row>
@@ -5624,7 +5869,7 @@
       <c r="D566" s="1"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
-      <c r="G566" s="1"/>
+      <c r="G566" s="4"/>
       <c r="H566" s="1"/>
       <c r="I566" s="1"/>
     </row>
@@ -5633,7 +5878,7 @@
       <c r="D567" s="1"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
-      <c r="G567" s="1"/>
+      <c r="G567" s="4"/>
       <c r="H567" s="1"/>
       <c r="I567" s="1"/>
     </row>
@@ -5642,7 +5887,7 @@
       <c r="D568" s="1"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
-      <c r="G568" s="1"/>
+      <c r="G568" s="4"/>
       <c r="H568" s="1"/>
       <c r="I568" s="1"/>
     </row>
@@ -5651,7 +5896,7 @@
       <c r="D569" s="1"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
-      <c r="G569" s="1"/>
+      <c r="G569" s="4"/>
       <c r="H569" s="1"/>
       <c r="I569" s="1"/>
     </row>
@@ -5660,7 +5905,7 @@
       <c r="D570" s="1"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
-      <c r="G570" s="1"/>
+      <c r="G570" s="4"/>
       <c r="H570" s="1"/>
       <c r="I570" s="1"/>
     </row>
@@ -5669,7 +5914,7 @@
       <c r="D571" s="1"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
-      <c r="G571" s="1"/>
+      <c r="G571" s="4"/>
       <c r="H571" s="1"/>
       <c r="I571" s="1"/>
     </row>
@@ -5678,7 +5923,7 @@
       <c r="D572" s="1"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
-      <c r="G572" s="1"/>
+      <c r="G572" s="4"/>
       <c r="H572" s="1"/>
       <c r="I572" s="1"/>
     </row>
@@ -5687,7 +5932,7 @@
       <c r="D573" s="1"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
-      <c r="G573" s="1"/>
+      <c r="G573" s="4"/>
       <c r="H573" s="1"/>
       <c r="I573" s="1"/>
     </row>
@@ -5696,7 +5941,7 @@
       <c r="D574" s="1"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
-      <c r="G574" s="1"/>
+      <c r="G574" s="4"/>
       <c r="H574" s="1"/>
       <c r="I574" s="1"/>
     </row>
@@ -5705,7 +5950,7 @@
       <c r="D575" s="1"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
-      <c r="G575" s="1"/>
+      <c r="G575" s="4"/>
       <c r="H575" s="1"/>
       <c r="I575" s="1"/>
     </row>
@@ -5714,7 +5959,7 @@
       <c r="D576" s="1"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
-      <c r="G576" s="1"/>
+      <c r="G576" s="4"/>
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
     </row>
@@ -5723,7 +5968,7 @@
       <c r="D577" s="1"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
-      <c r="G577" s="1"/>
+      <c r="G577" s="4"/>
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
     </row>
@@ -5732,7 +5977,7 @@
       <c r="D578" s="1"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
-      <c r="G578" s="1"/>
+      <c r="G578" s="4"/>
       <c r="H578" s="1"/>
       <c r="I578" s="1"/>
     </row>
@@ -5741,7 +5986,7 @@
       <c r="D579" s="1"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
-      <c r="G579" s="1"/>
+      <c r="G579" s="4"/>
       <c r="H579" s="1"/>
       <c r="I579" s="1"/>
     </row>
@@ -5750,7 +5995,7 @@
       <c r="D580" s="1"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
-      <c r="G580" s="1"/>
+      <c r="G580" s="4"/>
       <c r="H580" s="1"/>
       <c r="I580" s="1"/>
     </row>
@@ -5759,7 +6004,7 @@
       <c r="D581" s="1"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
-      <c r="G581" s="1"/>
+      <c r="G581" s="4"/>
       <c r="H581" s="1"/>
       <c r="I581" s="1"/>
     </row>
@@ -5768,7 +6013,7 @@
       <c r="D582" s="1"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
-      <c r="G582" s="1"/>
+      <c r="G582" s="4"/>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
     </row>
@@ -5777,7 +6022,7 @@
       <c r="D583" s="1"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
-      <c r="G583" s="1"/>
+      <c r="G583" s="4"/>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
     </row>
@@ -5786,7 +6031,7 @@
       <c r="D584" s="1"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
-      <c r="G584" s="1"/>
+      <c r="G584" s="4"/>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
     </row>
@@ -5795,7 +6040,7 @@
       <c r="D585" s="1"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
-      <c r="G585" s="1"/>
+      <c r="G585" s="4"/>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
     </row>
@@ -5804,7 +6049,7 @@
       <c r="D586" s="1"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
-      <c r="G586" s="1"/>
+      <c r="G586" s="4"/>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
     </row>
@@ -5813,7 +6058,7 @@
       <c r="D587" s="1"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
-      <c r="G587" s="1"/>
+      <c r="G587" s="4"/>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
     </row>
@@ -5822,7 +6067,7 @@
       <c r="D588" s="1"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
-      <c r="G588" s="1"/>
+      <c r="G588" s="4"/>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
     </row>
@@ -5831,7 +6076,7 @@
       <c r="D589" s="1"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
-      <c r="G589" s="1"/>
+      <c r="G589" s="4"/>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
     </row>
@@ -5840,7 +6085,7 @@
       <c r="D590" s="1"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
-      <c r="G590" s="1"/>
+      <c r="G590" s="4"/>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
     </row>
@@ -5849,7 +6094,7 @@
       <c r="D591" s="1"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
-      <c r="G591" s="1"/>
+      <c r="G591" s="4"/>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
     </row>
@@ -5858,7 +6103,7 @@
       <c r="D592" s="1"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
-      <c r="G592" s="1"/>
+      <c r="G592" s="4"/>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
     </row>
@@ -5867,7 +6112,7 @@
       <c r="D593" s="1"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
-      <c r="G593" s="1"/>
+      <c r="G593" s="4"/>
       <c r="H593" s="1"/>
       <c r="I593" s="1"/>
     </row>
@@ -5876,7 +6121,7 @@
       <c r="D594" s="1"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
-      <c r="G594" s="1"/>
+      <c r="G594" s="4"/>
       <c r="H594" s="1"/>
       <c r="I594" s="1"/>
     </row>
@@ -5885,7 +6130,7 @@
       <c r="D595" s="1"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
-      <c r="G595" s="1"/>
+      <c r="G595" s="4"/>
       <c r="H595" s="1"/>
       <c r="I595" s="1"/>
     </row>
@@ -5894,7 +6139,7 @@
       <c r="D596" s="1"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
-      <c r="G596" s="1"/>
+      <c r="G596" s="4"/>
       <c r="H596" s="1"/>
       <c r="I596" s="1"/>
     </row>
@@ -5903,7 +6148,7 @@
       <c r="D597" s="1"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
-      <c r="G597" s="1"/>
+      <c r="G597" s="4"/>
       <c r="H597" s="1"/>
       <c r="I597" s="1"/>
     </row>
@@ -5912,7 +6157,7 @@
       <c r="D598" s="1"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
-      <c r="G598" s="1"/>
+      <c r="G598" s="4"/>
       <c r="H598" s="1"/>
       <c r="I598" s="1"/>
     </row>
@@ -5921,7 +6166,7 @@
       <c r="D599" s="1"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
-      <c r="G599" s="1"/>
+      <c r="G599" s="4"/>
       <c r="H599" s="1"/>
       <c r="I599" s="1"/>
     </row>
@@ -5930,7 +6175,7 @@
       <c r="D600" s="1"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
-      <c r="G600" s="1"/>
+      <c r="G600" s="4"/>
       <c r="H600" s="1"/>
       <c r="I600" s="1"/>
     </row>
@@ -5939,7 +6184,7 @@
       <c r="D601" s="1"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
-      <c r="G601" s="1"/>
+      <c r="G601" s="4"/>
       <c r="H601" s="1"/>
       <c r="I601" s="1"/>
     </row>
@@ -5948,7 +6193,7 @@
       <c r="D602" s="1"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
-      <c r="G602" s="1"/>
+      <c r="G602" s="4"/>
       <c r="H602" s="1"/>
       <c r="I602" s="1"/>
     </row>
@@ -5957,7 +6202,7 @@
       <c r="D603" s="1"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
-      <c r="G603" s="1"/>
+      <c r="G603" s="4"/>
       <c r="H603" s="1"/>
       <c r="I603" s="1"/>
     </row>
@@ -5966,7 +6211,7 @@
       <c r="D604" s="1"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
-      <c r="G604" s="1"/>
+      <c r="G604" s="4"/>
       <c r="H604" s="1"/>
       <c r="I604" s="1"/>
     </row>
@@ -5975,7 +6220,7 @@
       <c r="D605" s="1"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
-      <c r="G605" s="1"/>
+      <c r="G605" s="4"/>
       <c r="H605" s="1"/>
       <c r="I605" s="1"/>
     </row>
@@ -5984,7 +6229,7 @@
       <c r="D606" s="1"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
-      <c r="G606" s="1"/>
+      <c r="G606" s="4"/>
       <c r="H606" s="1"/>
       <c r="I606" s="1"/>
     </row>
@@ -5993,7 +6238,7 @@
       <c r="D607" s="1"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
-      <c r="G607" s="1"/>
+      <c r="G607" s="4"/>
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
     </row>
@@ -6002,7 +6247,7 @@
       <c r="D608" s="1"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
-      <c r="G608" s="1"/>
+      <c r="G608" s="4"/>
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
     </row>
@@ -6011,7 +6256,7 @@
       <c r="D609" s="1"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
-      <c r="G609" s="1"/>
+      <c r="G609" s="4"/>
       <c r="H609" s="1"/>
       <c r="I609" s="1"/>
     </row>
@@ -6020,7 +6265,7 @@
       <c r="D610" s="1"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
-      <c r="G610" s="1"/>
+      <c r="G610" s="4"/>
       <c r="H610" s="1"/>
       <c r="I610" s="1"/>
     </row>
@@ -6029,7 +6274,7 @@
       <c r="D611" s="1"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
-      <c r="G611" s="1"/>
+      <c r="G611" s="4"/>
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
     </row>
@@ -6038,7 +6283,7 @@
       <c r="D612" s="1"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
-      <c r="G612" s="1"/>
+      <c r="G612" s="4"/>
       <c r="H612" s="1"/>
       <c r="I612" s="1"/>
     </row>
@@ -6047,7 +6292,7 @@
       <c r="D613" s="1"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
-      <c r="G613" s="1"/>
+      <c r="G613" s="4"/>
       <c r="H613" s="1"/>
       <c r="I613" s="1"/>
     </row>
@@ -6056,7 +6301,7 @@
       <c r="D614" s="1"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
-      <c r="G614" s="1"/>
+      <c r="G614" s="4"/>
       <c r="H614" s="1"/>
       <c r="I614" s="1"/>
     </row>
@@ -6065,7 +6310,7 @@
       <c r="D615" s="1"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
-      <c r="G615" s="1"/>
+      <c r="G615" s="4"/>
       <c r="H615" s="1"/>
       <c r="I615" s="1"/>
     </row>
@@ -6074,7 +6319,7 @@
       <c r="D616" s="1"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
-      <c r="G616" s="1"/>
+      <c r="G616" s="4"/>
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
     </row>
@@ -6083,7 +6328,7 @@
       <c r="D617" s="1"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
-      <c r="G617" s="1"/>
+      <c r="G617" s="4"/>
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
     </row>
@@ -6092,7 +6337,7 @@
       <c r="D618" s="1"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
-      <c r="G618" s="1"/>
+      <c r="G618" s="4"/>
       <c r="H618" s="1"/>
       <c r="I618" s="1"/>
     </row>
@@ -6101,7 +6346,7 @@
       <c r="D619" s="1"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
-      <c r="G619" s="1"/>
+      <c r="G619" s="4"/>
       <c r="H619" s="1"/>
       <c r="I619" s="1"/>
     </row>
@@ -6110,7 +6355,7 @@
       <c r="D620" s="1"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
-      <c r="G620" s="1"/>
+      <c r="G620" s="4"/>
       <c r="H620" s="1"/>
       <c r="I620" s="1"/>
     </row>
@@ -6119,7 +6364,7 @@
       <c r="D621" s="1"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
-      <c r="G621" s="1"/>
+      <c r="G621" s="4"/>
       <c r="H621" s="1"/>
       <c r="I621" s="1"/>
     </row>
@@ -6128,7 +6373,7 @@
       <c r="D622" s="1"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
-      <c r="G622" s="1"/>
+      <c r="G622" s="4"/>
       <c r="H622" s="1"/>
       <c r="I622" s="1"/>
     </row>
@@ -6137,7 +6382,7 @@
       <c r="D623" s="1"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
-      <c r="G623" s="1"/>
+      <c r="G623" s="4"/>
       <c r="H623" s="1"/>
       <c r="I623" s="1"/>
     </row>
@@ -6146,7 +6391,7 @@
       <c r="D624" s="1"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
-      <c r="G624" s="1"/>
+      <c r="G624" s="4"/>
       <c r="H624" s="1"/>
       <c r="I624" s="1"/>
     </row>
@@ -6155,7 +6400,7 @@
       <c r="D625" s="1"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
-      <c r="G625" s="1"/>
+      <c r="G625" s="4"/>
       <c r="H625" s="1"/>
       <c r="I625" s="1"/>
     </row>
@@ -6164,7 +6409,7 @@
       <c r="D626" s="1"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
-      <c r="G626" s="1"/>
+      <c r="G626" s="4"/>
       <c r="H626" s="1"/>
       <c r="I626" s="1"/>
     </row>
@@ -6173,7 +6418,7 @@
       <c r="D627" s="1"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
-      <c r="G627" s="1"/>
+      <c r="G627" s="4"/>
       <c r="H627" s="1"/>
       <c r="I627" s="1"/>
     </row>
@@ -6182,7 +6427,7 @@
       <c r="D628" s="1"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
-      <c r="G628" s="1"/>
+      <c r="G628" s="4"/>
       <c r="H628" s="1"/>
       <c r="I628" s="1"/>
     </row>
@@ -6191,7 +6436,7 @@
       <c r="D629" s="1"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
-      <c r="G629" s="1"/>
+      <c r="G629" s="4"/>
       <c r="H629" s="1"/>
       <c r="I629" s="1"/>
     </row>
@@ -6200,7 +6445,7 @@
       <c r="D630" s="1"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
-      <c r="G630" s="1"/>
+      <c r="G630" s="4"/>
       <c r="H630" s="1"/>
       <c r="I630" s="1"/>
     </row>
@@ -6209,7 +6454,7 @@
       <c r="D631" s="1"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
-      <c r="G631" s="1"/>
+      <c r="G631" s="4"/>
       <c r="H631" s="1"/>
       <c r="I631" s="1"/>
     </row>
@@ -6218,7 +6463,7 @@
       <c r="D632" s="1"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
-      <c r="G632" s="1"/>
+      <c r="G632" s="4"/>
       <c r="H632" s="1"/>
       <c r="I632" s="1"/>
     </row>
@@ -6227,7 +6472,7 @@
       <c r="D633" s="1"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
-      <c r="G633" s="1"/>
+      <c r="G633" s="4"/>
       <c r="H633" s="1"/>
       <c r="I633" s="1"/>
     </row>
@@ -6236,7 +6481,7 @@
       <c r="D634" s="1"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
-      <c r="G634" s="1"/>
+      <c r="G634" s="4"/>
       <c r="H634" s="1"/>
       <c r="I634" s="1"/>
     </row>
@@ -6245,7 +6490,7 @@
       <c r="D635" s="1"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
-      <c r="G635" s="1"/>
+      <c r="G635" s="4"/>
       <c r="H635" s="1"/>
       <c r="I635" s="1"/>
     </row>
@@ -6254,7 +6499,7 @@
       <c r="D636" s="1"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
-      <c r="G636" s="1"/>
+      <c r="G636" s="4"/>
       <c r="H636" s="1"/>
       <c r="I636" s="1"/>
     </row>
@@ -6263,7 +6508,7 @@
       <c r="D637" s="1"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
-      <c r="G637" s="1"/>
+      <c r="G637" s="4"/>
       <c r="H637" s="1"/>
       <c r="I637" s="1"/>
     </row>
@@ -6272,7 +6517,7 @@
       <c r="D638" s="1"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
-      <c r="G638" s="1"/>
+      <c r="G638" s="4"/>
       <c r="H638" s="1"/>
       <c r="I638" s="1"/>
     </row>
@@ -6281,7 +6526,7 @@
       <c r="D639" s="1"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
-      <c r="G639" s="1"/>
+      <c r="G639" s="4"/>
       <c r="H639" s="1"/>
       <c r="I639" s="1"/>
     </row>
@@ -6290,7 +6535,7 @@
       <c r="D640" s="1"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
-      <c r="G640" s="1"/>
+      <c r="G640" s="4"/>
       <c r="H640" s="1"/>
       <c r="I640" s="1"/>
     </row>
@@ -6299,7 +6544,7 @@
       <c r="D641" s="1"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
-      <c r="G641" s="1"/>
+      <c r="G641" s="4"/>
       <c r="H641" s="1"/>
       <c r="I641" s="1"/>
     </row>
@@ -6308,7 +6553,7 @@
       <c r="D642" s="1"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
-      <c r="G642" s="1"/>
+      <c r="G642" s="4"/>
       <c r="H642" s="1"/>
       <c r="I642" s="1"/>
     </row>
@@ -6317,7 +6562,7 @@
       <c r="D643" s="1"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
-      <c r="G643" s="1"/>
+      <c r="G643" s="4"/>
       <c r="H643" s="1"/>
       <c r="I643" s="1"/>
     </row>
@@ -6326,7 +6571,7 @@
       <c r="D644" s="1"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
-      <c r="G644" s="1"/>
+      <c r="G644" s="4"/>
       <c r="H644" s="1"/>
       <c r="I644" s="1"/>
     </row>
@@ -6335,7 +6580,7 @@
       <c r="D645" s="1"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
-      <c r="G645" s="1"/>
+      <c r="G645" s="4"/>
       <c r="H645" s="1"/>
       <c r="I645" s="1"/>
     </row>
@@ -6344,7 +6589,7 @@
       <c r="D646" s="1"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
-      <c r="G646" s="1"/>
+      <c r="G646" s="4"/>
       <c r="H646" s="1"/>
       <c r="I646" s="1"/>
     </row>
@@ -6353,7 +6598,7 @@
       <c r="D647" s="1"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
-      <c r="G647" s="1"/>
+      <c r="G647" s="4"/>
       <c r="H647" s="1"/>
       <c r="I647" s="1"/>
     </row>
@@ -6362,7 +6607,7 @@
       <c r="D648" s="1"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
-      <c r="G648" s="1"/>
+      <c r="G648" s="4"/>
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
     </row>
@@ -6371,7 +6616,7 @@
       <c r="D649" s="1"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
-      <c r="G649" s="1"/>
+      <c r="G649" s="4"/>
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
     </row>
@@ -6380,7 +6625,7 @@
       <c r="D650" s="1"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
-      <c r="G650" s="1"/>
+      <c r="G650" s="4"/>
       <c r="H650" s="1"/>
       <c r="I650" s="1"/>
     </row>
@@ -6389,7 +6634,7 @@
       <c r="D651" s="1"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
-      <c r="G651" s="1"/>
+      <c r="G651" s="4"/>
       <c r="H651" s="1"/>
       <c r="I651" s="1"/>
     </row>
@@ -6398,7 +6643,7 @@
       <c r="D652" s="1"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
-      <c r="G652" s="1"/>
+      <c r="G652" s="4"/>
       <c r="H652" s="1"/>
       <c r="I652" s="1"/>
     </row>
@@ -6407,7 +6652,7 @@
       <c r="D653" s="1"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
-      <c r="G653" s="1"/>
+      <c r="G653" s="4"/>
       <c r="H653" s="1"/>
       <c r="I653" s="1"/>
     </row>
@@ -6416,7 +6661,7 @@
       <c r="D654" s="1"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
-      <c r="G654" s="1"/>
+      <c r="G654" s="4"/>
       <c r="H654" s="1"/>
       <c r="I654" s="1"/>
     </row>
@@ -6425,7 +6670,7 @@
       <c r="D655" s="1"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
-      <c r="G655" s="1"/>
+      <c r="G655" s="4"/>
       <c r="H655" s="1"/>
       <c r="I655" s="1"/>
     </row>
@@ -6434,7 +6679,7 @@
       <c r="D656" s="1"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
-      <c r="G656" s="1"/>
+      <c r="G656" s="4"/>
       <c r="H656" s="1"/>
       <c r="I656" s="1"/>
     </row>
@@ -6443,7 +6688,7 @@
       <c r="D657" s="1"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
-      <c r="G657" s="1"/>
+      <c r="G657" s="4"/>
       <c r="H657" s="1"/>
       <c r="I657" s="1"/>
     </row>
@@ -6452,7 +6697,7 @@
       <c r="D658" s="1"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
-      <c r="G658" s="1"/>
+      <c r="G658" s="4"/>
       <c r="H658" s="1"/>
       <c r="I658" s="1"/>
     </row>
@@ -6461,7 +6706,7 @@
       <c r="D659" s="1"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
-      <c r="G659" s="1"/>
+      <c r="G659" s="4"/>
       <c r="H659" s="1"/>
       <c r="I659" s="1"/>
     </row>
@@ -6470,7 +6715,7 @@
       <c r="D660" s="1"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
-      <c r="G660" s="1"/>
+      <c r="G660" s="4"/>
       <c r="H660" s="1"/>
       <c r="I660" s="1"/>
     </row>
@@ -6479,7 +6724,7 @@
       <c r="D661" s="1"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
-      <c r="G661" s="1"/>
+      <c r="G661" s="4"/>
       <c r="H661" s="1"/>
       <c r="I661" s="1"/>
     </row>
@@ -6488,7 +6733,7 @@
       <c r="D662" s="1"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
-      <c r="G662" s="1"/>
+      <c r="G662" s="4"/>
       <c r="H662" s="1"/>
       <c r="I662" s="1"/>
     </row>
@@ -6497,7 +6742,7 @@
       <c r="D663" s="1"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
-      <c r="G663" s="1"/>
+      <c r="G663" s="4"/>
       <c r="H663" s="1"/>
       <c r="I663" s="1"/>
     </row>
@@ -6506,7 +6751,7 @@
       <c r="D664" s="1"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
-      <c r="G664" s="1"/>
+      <c r="G664" s="4"/>
       <c r="H664" s="1"/>
       <c r="I664" s="1"/>
     </row>
@@ -6515,7 +6760,7 @@
       <c r="D665" s="1"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
-      <c r="G665" s="1"/>
+      <c r="G665" s="4"/>
       <c r="H665" s="1"/>
       <c r="I665" s="1"/>
     </row>
@@ -6524,7 +6769,7 @@
       <c r="D666" s="1"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
-      <c r="G666" s="1"/>
+      <c r="G666" s="4"/>
       <c r="H666" s="1"/>
       <c r="I666" s="1"/>
     </row>
@@ -6533,7 +6778,7 @@
       <c r="D667" s="1"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
-      <c r="G667" s="1"/>
+      <c r="G667" s="4"/>
       <c r="H667" s="1"/>
       <c r="I667" s="1"/>
     </row>
@@ -6542,7 +6787,7 @@
       <c r="D668" s="1"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
-      <c r="G668" s="1"/>
+      <c r="G668" s="4"/>
       <c r="H668" s="1"/>
       <c r="I668" s="1"/>
     </row>
@@ -6551,7 +6796,7 @@
       <c r="D669" s="1"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
-      <c r="G669" s="1"/>
+      <c r="G669" s="4"/>
       <c r="H669" s="1"/>
       <c r="I669" s="1"/>
     </row>
@@ -6560,7 +6805,7 @@
       <c r="D670" s="1"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
-      <c r="G670" s="1"/>
+      <c r="G670" s="4"/>
       <c r="H670" s="1"/>
       <c r="I670" s="1"/>
     </row>
@@ -6569,7 +6814,7 @@
       <c r="D671" s="1"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
-      <c r="G671" s="1"/>
+      <c r="G671" s="4"/>
       <c r="H671" s="1"/>
       <c r="I671" s="1"/>
     </row>
@@ -6578,7 +6823,7 @@
       <c r="D672" s="1"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
-      <c r="G672" s="1"/>
+      <c r="G672" s="4"/>
       <c r="H672" s="1"/>
       <c r="I672" s="1"/>
     </row>
@@ -6587,7 +6832,7 @@
       <c r="D673" s="1"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
-      <c r="G673" s="1"/>
+      <c r="G673" s="4"/>
       <c r="H673" s="1"/>
       <c r="I673" s="1"/>
     </row>
@@ -6596,7 +6841,7 @@
       <c r="D674" s="1"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
-      <c r="G674" s="1"/>
+      <c r="G674" s="4"/>
       <c r="H674" s="1"/>
       <c r="I674" s="1"/>
     </row>
@@ -6605,7 +6850,7 @@
       <c r="D675" s="1"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
-      <c r="G675" s="1"/>
+      <c r="G675" s="4"/>
       <c r="H675" s="1"/>
       <c r="I675" s="1"/>
     </row>
@@ -6614,7 +6859,7 @@
       <c r="D676" s="1"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
-      <c r="G676" s="1"/>
+      <c r="G676" s="4"/>
       <c r="H676" s="1"/>
       <c r="I676" s="1"/>
     </row>
@@ -6623,7 +6868,7 @@
       <c r="D677" s="1"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
-      <c r="G677" s="1"/>
+      <c r="G677" s="4"/>
       <c r="H677" s="1"/>
       <c r="I677" s="1"/>
     </row>
